--- a/Documentacion/Proyecto/Iteracion3/Estimacion planificaion.xlsx
+++ b/Documentacion/Proyecto/Iteracion3/Estimacion planificaion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>8/27/2012</t>
   </si>
@@ -231,9 +231,6 @@
     <t>[AD]Notificar vencimiento documento</t>
   </si>
   <si>
-    <t>[AD]Notificar sitio apto para cobrar a cliente</t>
-  </si>
-  <si>
     <t>[AD]Cambiar contraseña</t>
   </si>
   <si>
@@ -301,6 +298,36 @@
   </si>
   <si>
     <t>testing y correcciones</t>
+  </si>
+  <si>
+    <t>[AD]Registrar solicitud de viatico</t>
+  </si>
+  <si>
+    <t>[AD]Registrar solicitud de pago a cuadrilla</t>
+  </si>
+  <si>
+    <t>[AD]Modificar solicitud de viatico</t>
+  </si>
+  <si>
+    <t>[AD]Modificar solicitud de pago a cuadrilla</t>
+  </si>
+  <si>
+    <t>[AD] Modificar documentación de integrante de cuadrilla</t>
+  </si>
+  <si>
+    <t>[AD] Enviar documentos de proyecto a cliente</t>
+  </si>
+  <si>
+    <t>[AD] Notificar vencimiento documento de integrante de cuadrilla</t>
+  </si>
+  <si>
+    <t>[AD] Notificar solicitud de tarea apta para cobrar a cliente</t>
+  </si>
+  <si>
+    <t>[AD] Cambiar contraseña</t>
+  </si>
+  <si>
+    <t>[AD] Gestionar olvido de contraseña</t>
   </si>
 </sst>
 </file>
@@ -308,7 +335,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -448,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,60 +484,81 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +575,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -815,11 +863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AW17" sqref="AW17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -849,7 +897,7 @@
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1011,120 +1059,120 @@
         <v>28</v>
       </c>
       <c r="BC1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BD1" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="BE1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="6" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="7" t="s">
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="6" t="s">
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="7" t="s">
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="6" t="s">
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="7" t="s">
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="6" t="s">
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="7" t="s">
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="6" t="s">
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="8" t="s">
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
@@ -1134,84 +1182,84 @@
       <c r="BK2" s="1"/>
     </row>
     <row r="3" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="15" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="15" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="16" t="s">
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="15" t="s">
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="16" t="s">
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="15" t="s">
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="16" t="s">
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -1221,422 +1269,428 @@
       <c r="BK3" s="1"/>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="6" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7" t="s">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7" t="s">
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="6" t="s">
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7" t="s">
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="6" t="s">
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="21"/>
-      <c r="BE4" s="21"/>
-      <c r="BF4" s="21"/>
-      <c r="BG4" s="21"/>
-      <c r="BH4" s="21"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
-      <c r="BK4" s="21"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="21"/>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="17" t="s">
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="17" t="s">
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="18" t="s">
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="17" t="s">
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="19" t="s">
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AV6" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="19" t="s">
+      <c r="AV6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AZ6" s="9" t="s">
+      <c r="AZ6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BA6" s="19" t="s">
+      <c r="BA6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="BB6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BC6" s="19" t="s">
+      <c r="BC6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BD6" s="17" t="s">
+      <c r="BD6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG6" s="9" t="s">
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BH6" s="18" t="s">
+      <c r="BH6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BI6" s="18"/>
-      <c r="BJ6" s="9" t="s">
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BK6" s="9"/>
+      <c r="BK6" s="6"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="18" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17" t="s">
+      <c r="W7" s="16"/>
+      <c r="X7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="19" t="s">
+      <c r="AG7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AG7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="18" t="s">
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="17" t="s">
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="18" t="s">
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="17" t="s">
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="18" t="s">
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BD7" s="18"/>
-      <c r="BE7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF7" s="18" t="s">
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="BG7" s="18"/>
-      <c r="BH7" s="9" t="s">
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="BI7" s="19" t="s">
+      <c r="BI7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BJ7" s="9" t="s">
+      <c r="BJ7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BK7" s="9"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -1696,7 +1750,75 @@
       <c r="BD8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="84">
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AL4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG7:AI7"/>
     <mergeCell ref="BF7:BG7"/>
     <mergeCell ref="BH6:BI6"/>
     <mergeCell ref="AX4:BC4"/>
@@ -1713,71 +1835,6 @@
     <mergeCell ref="AP7:AQ7"/>
     <mergeCell ref="AR7:AT7"/>
     <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1790,7 +1847,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1802,7 +1859,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Proyecto/Iteracion3/Estimacion planificaion.xlsx
+++ b/Documentacion/Proyecto/Iteracion3/Estimacion planificaion.xlsx
@@ -500,9 +500,57 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,54 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,89 +1090,89 @@
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="20" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="21" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="20" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="20" t="s">
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="21" t="s">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="20" t="s">
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="21" t="s">
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="20" t="s">
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="24" t="s">
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
@@ -1272,65 +1272,65 @@
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="20" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21" t="s">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="20" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="21" t="s">
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="20" t="s">
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="21" t="s">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="20" t="s">
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
       <c r="AO4" s="11"/>
@@ -1342,14 +1342,14 @@
       <c r="AU4" s="11"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="11"/>
-      <c r="AX4" s="13" t="s">
+      <c r="AX4" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="15"/>
+      <c r="AY4" s="30"/>
+      <c r="AZ4" s="30"/>
+      <c r="BA4" s="30"/>
+      <c r="BB4" s="30"/>
+      <c r="BC4" s="31"/>
       <c r="BD4" s="11"/>
       <c r="BE4" s="11"/>
       <c r="BF4" s="11"/>
@@ -1363,81 +1363,81 @@
       <c r="A5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="20" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="20" t="s">
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="30" t="s">
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="25" t="s">
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="30" t="s">
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="20" t="s">
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="30" t="s">
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="20" t="s">
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
       <c r="BA5" s="11"/>
       <c r="BB5" s="11"/>
       <c r="BC5" s="11"/>
@@ -1454,83 +1454,83 @@
       <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="20" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="21" t="s">
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="20" t="s">
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="16" t="s">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="12" t="s">
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="16" t="s">
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="12" t="s">
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="16" t="s">
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
       <c r="AU6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AV6" s="16" t="s">
+      <c r="AV6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
       <c r="AY6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1546,20 +1546,20 @@
       <c r="BC6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BD6" s="16" t="s">
+      <c r="BD6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="BE6" s="16"/>
+      <c r="BE6" s="24"/>
       <c r="BF6" s="9" t="s">
         <v>71</v>
       </c>
       <c r="BG6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BH6" s="12" t="s">
+      <c r="BH6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="BI6" s="12"/>
+      <c r="BI6" s="25"/>
       <c r="BJ6" s="6" t="s">
         <v>40</v>
       </c>
@@ -1569,118 +1569,118 @@
       <c r="A7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="12" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="16" t="s">
+      <c r="L7" s="25"/>
+      <c r="M7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="12" t="s">
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
       <c r="S7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="16" t="s">
+      <c r="U7" s="25"/>
+      <c r="V7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="12" t="s">
+      <c r="W7" s="24"/>
+      <c r="X7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="16" t="s">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="16" t="s">
+      <c r="AD7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AE7" s="16"/>
+      <c r="AE7" s="24"/>
       <c r="AF7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AG7" s="16" t="s">
+      <c r="AG7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="12" t="s">
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
       <c r="AM7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AN7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="16" t="s">
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="12" t="s">
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="16" t="s">
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="12" t="s">
+      <c r="AV7" s="24"/>
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="16" t="s">
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="12" t="s">
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="BD7" s="12"/>
+      <c r="BD7" s="25"/>
       <c r="BE7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BF7" s="12" t="s">
+      <c r="BF7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BG7" s="12"/>
+      <c r="BG7" s="25"/>
       <c r="BH7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1751,20 +1751,53 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BF7:BG7"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="AX4:BC4"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AZ7:BB7"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AR7:AT7"/>
+    <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:R4"/>
     <mergeCell ref="BA2:BD2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:K3"/>
@@ -1781,60 +1814,27 @@
     <mergeCell ref="AS2:AV2"/>
     <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:R4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="BF7:BG7"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="AX4:BC4"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AZ7:BB7"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AV6:AX6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AR7:AT7"/>
-    <mergeCell ref="AU7:AW7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
